--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Navigation.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Navigation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excelens_JWS\Excelens_Trunk_Jul122017\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_EXCL_JUL\Excelens_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Objects" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Objects_Navigation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>textbox</t>
   </si>
@@ -157,12 +157,6 @@
     <t>Actions Overdue</t>
   </si>
   <si>
-    <t>User Site Menu Navigation</t>
-  </si>
-  <si>
-    <t>User Site Sub Menu Transmittals Navigation</t>
-  </si>
-  <si>
     <t>New Transmittal</t>
   </si>
   <si>
@@ -293,12 +287,24 @@
   </si>
   <si>
     <t>(//*[ text()='Site contents'])[2]</t>
+  </si>
+  <si>
+    <t>Site Menu Navigation</t>
+  </si>
+  <si>
+    <t>Site Sub Menu Transmittals Navigation</t>
+  </si>
+  <si>
+    <t>Menu - Home</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -877,52 +883,52 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -939,10 +945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -979,7 +985,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -990,7 +996,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -1004,7 +1010,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -1013,12 +1019,12 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1027,12 +1033,12 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1041,12 +1047,12 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>35</v>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>35</v>
@@ -1074,7 +1080,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>35</v>
@@ -1083,39 +1089,39 @@
         <v>21</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1124,12 +1130,12 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -1138,220 +1144,234 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
       <c r="C35" t="s">
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24 C27 C21:C22 C3:C10 C12:C15 C17:C19 C30 C33:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C28 C22:C23 C34:C36 C13:C16 C18:C20 C31 C3:C11">
       <formula1>"id,name,xpath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1365,7 +1385,7 @@
           <x14:formula1>
             <xm:f>Objects!$A$2:$A$40</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D10 D21:D22 D30 D24:D25 D27:D28 D12:D15 D17:D19 D33:D35</xm:sqref>
+          <xm:sqref>D34:D36 D22:D23 D31 D25:D26 D28:D29 D13:D16 D18:D20 D3:D11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Navigation.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Navigation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
   <si>
     <t>textbox</t>
   </si>
@@ -283,9 +283,6 @@
     <t>.//*[@id='apptile-appadd']/div[1]/a</t>
   </si>
   <si>
-    <t>O365_MainLink_Settings</t>
-  </si>
-  <si>
     <t>(//*[ text()='Site contents'])[2]</t>
   </si>
   <si>
@@ -299,13 +296,70 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Newsroom</t>
+  </si>
+  <si>
+    <t>Menu - Newsroom</t>
+  </si>
+  <si>
+    <t>Corporate Portal Sub Menu Transmittals Navigation</t>
+  </si>
+  <si>
+    <t>Corporate Portal Main Menu Navigation</t>
+  </si>
+  <si>
+    <t>SubMenu - Articles</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>Add a Page</t>
+  </si>
+  <si>
+    <t>(.//*[contains(@id,'CreatePage')])[2]</t>
+  </si>
+  <si>
+    <t>Bread Crum</t>
+  </si>
+  <si>
+    <t>Breadcrum-Articles</t>
+  </si>
+  <si>
+    <t>Breadcrum-Excelens Portal</t>
+  </si>
+  <si>
+    <t>Excelens Portal</t>
+  </si>
+  <si>
+    <t>.//*[@id='appsTable']/descendant :: a [text()='subsiteName']</t>
+  </si>
+  <si>
+    <t>Subsite link</t>
+  </si>
+  <si>
+    <t>Corporate Portal Navigation</t>
+  </si>
+  <si>
+    <t>.//*[@name='onetidHeadbnnr0']</t>
+  </si>
+  <si>
+    <t>Corporate Portal Site</t>
+  </si>
+  <si>
+    <t>.//*[@id='O365_MainLink_Settings']</t>
+  </si>
+  <si>
+    <t>(.//*[contains(@id,'MenuItem_ViewAllSiteContents')])[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -338,6 +392,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -377,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -385,6 +445,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -945,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -956,11 +1022,11 @@
     <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -983,18 +1049,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:9">
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -1008,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1022,7 +1088,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -1036,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>73</v>
       </c>
@@ -1050,7 +1116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:7">
       <c r="B7" s="4" t="s">
         <v>79</v>
       </c>
@@ -1064,7 +1130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:7">
       <c r="B8" s="4" t="s">
         <v>80</v>
       </c>
@@ -1078,7 +1144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:7">
       <c r="B9" s="5" t="s">
         <v>81</v>
       </c>
@@ -1092,262 +1158,259 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="B10" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>91</v>
       </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="B13" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" t="s">
+    <row r="22" spans="1:9">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" t="s">
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="B19" t="s">
+    <row r="27" spans="1:9">
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C33" t="s">
         <v>34</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7">
       <c r="B36" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -1356,22 +1419,174 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="45" spans="1:7">
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A30:G30"/>
+  <mergeCells count="12">
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A38:G38"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25 C28 C22:C23 C34:C36 C13:C16 C18:C20 C31 C3:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33 C36 C30:C31 C42:C45 C21:C24 C26:C28 C39 C18:C19 C50:C51 C13:C16 C3:C9 C11">
       <formula1>"id,name,xpath"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1385,7 +1600,7 @@
           <x14:formula1>
             <xm:f>Objects!$A$2:$A$40</xm:f>
           </x14:formula1>
-          <xm:sqref>D34:D36 D22:D23 D31 D25:D26 D28:D29 D13:D16 D18:D20 D3:D11</xm:sqref>
+          <xm:sqref>D42:D45 D30:D31 D39 D33:D34 D36:D37 D21:D24 D26:D28 D18:D19 D50:D51 D13:D16 D3:D9 D11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Navigation.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Navigation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>textbox</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>(.//*[contains(@id,'MenuItem_ViewAllSiteContents')])[2]</t>
+  </si>
+  <si>
+    <t>movetoelement_click</t>
   </si>
 </sst>
 </file>
@@ -801,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A38"/>
+  <dimension ref="A2:A39"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -995,6 +998,11 @@
     <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
